--- a/Excel-XLSX/UN-CUB.xlsx
+++ b/Excel-XLSX/UN-CUB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="493">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>lbIYH0</t>
+    <t>U6w8uK</t>
   </si>
   <si>
     <t>1974</t>
@@ -1482,25 +1482,19 @@
     <t>296</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
     <t>297</t>
   </si>
   <si>
     <t>298</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
     <t>299</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>302</t>
   </si>
 </sst>
 </file>
@@ -1885,7 +1879,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V303"/>
+  <dimension ref="A1:V301"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -21586,7 +21580,7 @@
         <v>30</v>
       </c>
       <c r="N290" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O290" s="2" t="s">
         <v>32</v>
@@ -21740,7 +21734,7 @@
         <v>32</v>
       </c>
       <c r="T292" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="U292" s="1" t="s">
         <v>33</v>
@@ -21766,16 +21760,16 @@
         <v>480</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>257</v>
+        <v>183</v>
       </c>
       <c r="H293" s="1" t="s">
-        <v>258</v>
+        <v>184</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>259</v>
+        <v>184</v>
       </c>
       <c r="J293" s="2" t="s">
         <v>28</v>
@@ -21834,16 +21828,16 @@
         <v>480</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c r="H294" s="1" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="I294" s="1" t="s">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="J294" s="2" t="s">
         <v>28</v>
@@ -21858,7 +21852,7 @@
         <v>30</v>
       </c>
       <c r="N294" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O294" s="2" t="s">
         <v>32</v>
@@ -21902,16 +21896,16 @@
         <v>480</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H295" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="I295" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="J295" s="2" t="s">
         <v>28</v>
@@ -21970,16 +21964,16 @@
         <v>480</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>117</v>
+        <v>329</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>118</v>
+        <v>473</v>
       </c>
       <c r="H296" s="1" t="s">
-        <v>119</v>
+        <v>474</v>
       </c>
       <c r="I296" s="1" t="s">
-        <v>120</v>
+        <v>474</v>
       </c>
       <c r="J296" s="2" t="s">
         <v>28</v>
@@ -21994,10 +21988,10 @@
         <v>30</v>
       </c>
       <c r="N296" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O296" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="P296" s="2" t="s">
         <v>32</v>
@@ -22038,16 +22032,16 @@
         <v>480</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>239</v>
+        <v>349</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>267</v>
+        <v>488</v>
       </c>
       <c r="H297" s="1" t="s">
-        <v>268</v>
+        <v>489</v>
       </c>
       <c r="I297" s="1" t="s">
-        <v>268</v>
+        <v>489</v>
       </c>
       <c r="J297" s="2" t="s">
         <v>28</v>
@@ -22062,10 +22056,10 @@
         <v>30</v>
       </c>
       <c r="N297" s="2" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="O297" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="P297" s="2" t="s">
         <v>32</v>
@@ -22100,22 +22094,22 @@
         <v>22</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E298" s="2" t="s">
         <v>480</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>329</v>
+        <v>101</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>473</v>
+        <v>102</v>
       </c>
       <c r="H298" s="1" t="s">
-        <v>474</v>
+        <v>103</v>
       </c>
       <c r="I298" s="1" t="s">
-        <v>474</v>
+        <v>104</v>
       </c>
       <c r="J298" s="2" t="s">
         <v>28</v>
@@ -22133,7 +22127,7 @@
         <v>50</v>
       </c>
       <c r="O298" s="2" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="P298" s="2" t="s">
         <v>32</v>
@@ -22168,22 +22162,22 @@
         <v>22</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E299" s="2" t="s">
         <v>480</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>349</v>
+        <v>273</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>490</v>
+        <v>274</v>
       </c>
       <c r="H299" s="1" t="s">
-        <v>491</v>
+        <v>275</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>491</v>
+        <v>275</v>
       </c>
       <c r="J299" s="2" t="s">
         <v>28</v>
@@ -22198,10 +22192,10 @@
         <v>30</v>
       </c>
       <c r="N299" s="2" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="O299" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="P299" s="2" t="s">
         <v>32</v>
@@ -22242,16 +22236,16 @@
         <v>480</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H300" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J300" s="2" t="s">
         <v>28</v>
@@ -22266,7 +22260,7 @@
         <v>30</v>
       </c>
       <c r="N300" s="2" t="s">
-        <v>54</v>
+        <v>201</v>
       </c>
       <c r="O300" s="2" t="s">
         <v>32</v>
@@ -22310,16 +22304,16 @@
         <v>480</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>273</v>
+        <v>391</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>274</v>
+        <v>392</v>
       </c>
       <c r="H301" s="1" t="s">
-        <v>275</v>
+        <v>393</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>275</v>
+        <v>393</v>
       </c>
       <c r="J301" s="2" t="s">
         <v>28</v>
@@ -22334,10 +22328,10 @@
         <v>30</v>
       </c>
       <c r="N301" s="2" t="s">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="O301" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="P301" s="2" t="s">
         <v>32</v>
@@ -22358,142 +22352,6 @@
         <v>33</v>
       </c>
       <c r="V301" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="E302" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="F302" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G302" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H302" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I302" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J302" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K302" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L302" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M302" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N302" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="O302" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P302" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q302" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R302" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S302" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T302" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U302" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V302" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="F303" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="G303" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="H303" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I303" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J303" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K303" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L303" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M303" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N303" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O303" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P303" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q303" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R303" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S303" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T303" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U303" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V303" s="2" t="s">
         <v>32</v>
       </c>
     </row>
